--- a/server/doc/服务器后台设计文档.xlsx
+++ b/server/doc/服务器后台设计文档.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYW-DaLian\Desktop\设计文档\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C553BC14-DFD2-4D57-BC6C-653B4AA44A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A9F744-95B3-41D1-929A-F473BC1CCEE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模块分化" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="2" r:id="rId2"/>
     <sheet name="Debug" sheetId="4" r:id="rId3"/>
-    <sheet name="Json" sheetId="5" r:id="rId4"/>
+    <sheet name="Register" sheetId="5" r:id="rId4"/>
     <sheet name="Control" sheetId="6" r:id="rId5"/>
-    <sheet name="Beat" sheetId="7" r:id="rId6"/>
-    <sheet name="Hard" sheetId="8" r:id="rId7"/>
-    <sheet name="Ota" sheetId="9" r:id="rId8"/>
+    <sheet name="Mqtt" sheetId="7" r:id="rId6"/>
+    <sheet name="Task" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>模块职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,183 +42,6 @@
   </si>
   <si>
     <t>概述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控hmi程序运行情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beat类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beat.cpp\Beat.h</t>
-  </si>
-  <si>
-    <t>心跳检测处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setRecBeat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置是否收到心跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到hmi消息将一个变量置为ture，读取线程循环读值读到ture再给置为false，读到false重启板子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与硬件直接打交道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云端命令下发到硬件执行，硬件采集信
-息上报云端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.提供接口，给其他模块操控硬件
-2.开一个线程，循环采集信息，调用dbus接口上报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HardMaster类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HardMaster.cpp/.h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件主控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个好的产品怎么能没有ota呢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器发布可以升级，客户手动选择。板子里有两个文件夹。
-最开始两个文件里程序都是初始版本，开始迭代后。每次新
-版将会更替到旧版，如果升级后的文件损坏，也可以使用旧版从新升级</t>
-  </si>
-  <si>
-    <t>服务器有新版本，或修改了bug。远程通知客户进行升级，
-由于使用了http。所有log日志上传也写在这个模块里了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogUpload类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LogUpload.h/.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传log到服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t>单例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setHttpPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置上传的网络路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ota类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ota.h/.cpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>去服务器指定路径下载程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置下载路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启线程下载新版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启线程，上传log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openGpio23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getHardStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回硬件状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>closeGpio23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openLed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>closeLed</t>
-  </si>
-  <si>
-    <t>看名知意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -262,11 +84,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用消息队列与网页通信，消息收到后处理放入队列</t>
+    <t>手写了个队列，使用了进程间通讯之消息队列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手写了个队列，使用了进程间通讯之消息队列</t>
+    <t>使用消息队列与网页通信，消息收到后处理放入线程池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mqtt的C语言使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责跟板子通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块拆分没发送与接收。分工作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精华部分吧，线程池的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理终端和web发过来的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖线程池处理任务，按终端与web做两个任务队列接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,18 +151,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -339,67 +179,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,15 +304,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -521,7 +327,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457950" y="3819526"/>
+          <a:off x="6724650" y="3790951"/>
           <a:ext cx="1924050" cy="752474"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -551,7 +357,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>MqttSend</a:t>
+            <a:t>Task</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -563,8 +369,20 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>向终端下发命令</a:t>
-          </a:r>
+            <a:t>处理终端和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发过来的任务</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -627,7 +445,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>MqttRec</a:t>
+            <a:t>Mqtt</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -639,8 +457,9 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>接收终端消息并处理</a:t>
-          </a:r>
+            <a:t>提供任务收发的接口</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -780,15 +599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>661988</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>661988</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -805,9 +624,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7419975" y="1314450"/>
-          <a:ext cx="100013" cy="2505076"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7519988" y="1314450"/>
+          <a:ext cx="166687" cy="2476501"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2666,25 +2485,506 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形: 圆角 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F18689-97FC-4E85-815F-9F9567BEE8B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685801" y="2809875"/>
+          <a:ext cx="6115050" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>远程命令要通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>mqtt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下发。为了保证高并发时程序不回阻塞，将从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发过来的字符串，塞进线程池中。有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模块去处理。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形: 圆角 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18695B20-8B79-4F9B-8E98-D6854E8F773E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="5172075"/>
+          <a:ext cx="1571625" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>端</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>cgi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>程序</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2571750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形: 圆角 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6A6B14-9B67-45D3-B81D-0D8624E37218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="5200650"/>
+          <a:ext cx="1571625" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Control</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形: 圆角 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643C1905-9049-4C5E-9B6B-BBF02DD3A5BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="5210175"/>
+          <a:ext cx="1571625" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>任务处理模块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2571750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A72A8AF-ABF3-4E62-ACCB-6B15F4BA046D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="5595938"/>
+          <a:ext cx="1485900" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C48AEF1A-EF18-4E14-8523-C86E7214F219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915025" y="5624513"/>
+          <a:ext cx="1343025" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2314575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>126873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="对话气泡: 椭圆形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443B0407-8D44-435D-951E-A86CE33EB30A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="4533900"/>
+          <a:ext cx="914400" cy="993648"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息队列通信</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1637946</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85464</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>151300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9092</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF57B865-EA40-4371-84BD-E5939D942C44}"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E574CAE9-9A4F-4561-86B1-D6D0C3C11371}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,8 +3000,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581025" y="1952625"/>
-          <a:ext cx="2828571" cy="2085714"/>
+          <a:off x="619125" y="2133600"/>
+          <a:ext cx="8800000" cy="3466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2713,22 +3013,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1266198</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66195</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>293890</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56737</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9235C17-4FCE-480D-845E-3637478C59E0}"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E455832-19D7-4A9B-8997-A44DCDBD3131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,8 +3044,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628650" y="4343400"/>
-          <a:ext cx="5019048" cy="3838095"/>
+          <a:off x="542925" y="5781675"/>
+          <a:ext cx="11076190" cy="3304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2756,23 +3056,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形: 圆角 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F18689-97FC-4E85-815F-9F9567BEE8B8}"/>
+        <xdr:cNvPr id="7" name="矩形: 圆角 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A72AD4A-B9B8-4724-BC80-FE05CAA4664B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,8 +3080,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7143751" y="1533525"/>
-          <a:ext cx="6115050" cy="1000125"/>
+          <a:off x="10172700" y="3771900"/>
+          <a:ext cx="2019300" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2810,31 +3110,166 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>远程命令要通过</a:t>
+            <a:t>先初始化，成功后回调函数接收消息，放进</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>mqtt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>下发。板子</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>id</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>。这里根据板子</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>id%10</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>后进行了分组。这样的话，发送的时候按组发送。能节省些调度</a:t>
+            <a:t>Task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>处理模块的线程池中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>275113</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>75775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF99CD16-F044-4B52-89EB-AEB91122921F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="10048875"/>
+          <a:ext cx="8895238" cy="3400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65590</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>56612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BCE9B1-6744-4264-8E4B-4BE1737FCA39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="13830300"/>
+          <a:ext cx="8676190" cy="4304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形: 圆角 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49941BF-E806-4B38-A8D7-FE5EEFF85C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="11420476"/>
+          <a:ext cx="2524125" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>也是先初始化，之后其他模块需要发送数据，调用接口进行数据发送</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2844,27 +3279,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>762000</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形: 圆角 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296BF736-DE9E-467A-9411-A155F8C288C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126ABB2B-07FA-4830-A25E-87F46F656197}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,8 +3307,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8591550" y="495300"/>
-          <a:ext cx="3581400" cy="866775"/>
+          <a:off x="1009650" y="2352675"/>
+          <a:ext cx="3609975" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2881,15 +3316,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
+          <a:schemeClr val="accent1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -2902,19 +3337,31 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>http</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>上传用的网上写的</a:t>
-          </a:r>
+            <a:t>analysis_task_from_web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>demo</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>。本想自己写了，但发现人家写的确实不错。就仔细把人家的代码研究了一遍。给它加上注释。这样过一遍，技术就算吃下了</a:t>
+            <a:t>web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发过来数据先进行解析，然后将对应处理的函数指针，和参数放进线程池的队列中（参数得</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>malloc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>），并且传入的函数要在执行完毕释放的参数申请的内存。从终端发过来的消息，理同。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3218,25 +3665,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>48</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
-        <v>52</v>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>50</v>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>51</v>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3280,31 +3727,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>55</v>
+      <c r="C1" s="8" t="s">
+        <v>11</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>53</v>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>54</v>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3323,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28B073-098F-442F-AE81-835DC267FAEB}">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3335,31 +3782,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>58</v>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>56</v>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>57</v>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3375,10 +3822,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5D6CCE-069C-4592-8BFB-4CD301C189B2}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3389,90 +3836,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>4</v>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>4</v>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>12</v>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F239CEA-EBEC-4F8A-B765-46C605C3EB61}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D18:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3483,239 +3892,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>13</v>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>14</v>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-      <c r="C14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="9"/>
+      <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B7:B14"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E70CD7B-1CA5-4868-AA4F-954A0047AFC3}">
-  <dimension ref="B2:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="2:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
